--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Row</t>
   </si>
@@ -166,6 +166,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -241,7 +307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -249,7 +315,7 @@
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
     <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
@@ -259,45 +325,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29331214405020289</v>
+        <v>0.29327604952437519</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -329,317 +395,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29428434592251068</v>
+        <v>0.29425048920040919</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0013164269391932304</v>
+        <v>0.0013189885815270894</v>
       </c>
       <c r="E3" s="0">
-        <v>-4.9092668562956312e-06</v>
+        <v>-4.999241294972401e-06</v>
       </c>
       <c r="F3" s="0">
-        <v>-2.7221436952268019e-06</v>
+        <v>-3.1859137857299906e-06</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.00013474227233464228</v>
+        <v>-0.00013462783614299903</v>
       </c>
       <c r="H3" s="0">
-        <v>7.5734570616109416e-07</v>
+        <v>7.3893907311130055e-07</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00020253130546806254</v>
+        <v>-0.00020239736080266213</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-7.7424237354684067e-08</v>
+        <v>-7.7492539829471241e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29222419491631452</v>
+        <v>0.29145801663328447</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00082043730902380332</v>
+        <v>-0.0015539283330628685</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-1.4925635864558196e-07</v>
+        <v>-1.4930367743056516e-07</v>
       </c>
       <c r="F4" s="0">
-        <v>-2.0206365333166852e-05</v>
+        <v>-2.0086193578360719e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-4.30066073897969e-05</v>
+        <v>-4.2873833285103199e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0011585074027057479</v>
+        <v>-0.0011575960473246382</v>
       </c>
       <c r="J4" s="0">
-        <v>2.52928526417014e-08</v>
+        <v>2.5560372760684001e-08</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.7869358237665445e-05</v>
+        <v>-1.7864416569091102e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29210436499961595</v>
+        <v>0.29203767419653448</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0026118722399216514</v>
+        <v>0.0032496962659846035</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.00068114969550126946</v>
+        <v>-0.00062363513829834618</v>
       </c>
       <c r="E5" s="0">
-        <v>6.2110185459724997e-05</v>
+        <v>6.2383460227012725e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00016675748295065111</v>
+        <v>0.00016816307388065456</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0018530130084670002</v>
+        <v>-0.0018508191266549041</v>
       </c>
       <c r="H5" s="0">
-        <v>5.6160413441419569e-06</v>
+        <v>5.6719468706137904e-06</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00043277025967353232</v>
+        <v>-0.00043254868239875891</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>7.4709726705091128e-07</v>
+        <v>7.4576363912060017e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B6" s="0">
-        <v>0.58289322730032733</v>
+        <v>0.58250535049530683</v>
       </c>
       <c r="C6" s="0">
-        <v>0.29566002140031888</v>
+        <v>0.2953383645413527</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-3.195922865218328e-07</v>
+        <v>-3.1956150137918815e-07</v>
       </c>
       <c r="F6" s="0">
-        <v>-8.7327199073876564e-05</v>
+        <v>-8.7279565938449616e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-5.329829286749524e-05</v>
+        <v>-5.3246352312610439e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0047298259996596623</v>
+        <v>-0.0047294465563309223</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-3.8801571994317996e-07</v>
+        <v>-3.9620649699978472e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B7" s="0">
-        <v>0.54073927639378727</v>
+        <v>0.54039031374823476</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.043246512373565513</v>
+        <v>-0.043212493197749016</v>
       </c>
       <c r="E7" s="0">
-        <v>-9.7291567449458408e-05</v>
+        <v>-9.6715138137333262e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00077813235374685132</v>
+        <v>-0.00077516748501435572</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00033782429351391903</v>
+        <v>0.00033905404093473584</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0016384257472009003</v>
+        <v>0.0016385504979685793</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-8.2646524930396481e-06</v>
+        <v>-8.265465074708267e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B8" s="0">
-        <v>0.23436471622057023</v>
+        <v>0.23692802112716793</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.29359808742873295</v>
+        <v>-0.29069282874203783</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>2.013933301198354e-05</v>
+        <v>2.0139816837635527e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0074335303090002679</v>
+        <v>-0.007431737238923701</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-2.7230038641005396e-05</v>
+        <v>-2.7217076120107353e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.0054935267401061503</v>
+        <v>-0.0054883165996474723</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0001576750102514346</v>
+        <v>0.00015766721882470858</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.017649648919440486</v>
+        <v>-0.015116105433552685</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.031469042468348911</v>
+        <v>-0.031614122423793321</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.029476808799154351</v>
+        <v>-0.029457147468180633</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.18369998720398648</v>
+        <v>-0.18359885899239659</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0027751732980885579</v>
+        <v>-0.0027840390600413676</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0046641157662914321</v>
+        <v>-0.0046598565985617206</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00023129715994133567</v>
+        <v>-0.00023216564908855146</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0003020595558003436</v>
+        <v>0.00030206363134155367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0">
-        <v>0.27684912384442967</v>
+        <v>0.28640484474548183</v>
       </c>
       <c r="C10" s="0">
-        <v>0.3289066494395379</v>
+        <v>0.33611848773701059</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00062089861307879361</v>
+        <v>-0.00062088709854028539</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0063940250982446843</v>
+        <v>0.0063813633989069276</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00034567887981488835</v>
+        <v>-0.0003456723929400724</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00085594822842380259</v>
+        <v>-0.00086665215979439959</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.048331115467248373</v>
+        <v>-0.048497421483609159</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0093517394146534483</v>
+        <v>0.0093517321780009488</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B11" s="0">
-        <v>0.41273546953003071</v>
+        <v>0.42001279568163252</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.011000322530761927</v>
+        <v>-0.012226240649239592</v>
       </c>
       <c r="E11" s="0">
-        <v>0.022937208662750078</v>
+        <v>0.022779814260864957</v>
       </c>
       <c r="F11" s="0">
-        <v>0.16262814325224623</v>
+        <v>0.16181858389951553</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0016215703288312323</v>
+        <v>0.0015996221714689408</v>
       </c>
       <c r="H11" s="0">
-        <v>4.2757908586124778e-05</v>
+        <v>8.677072995056951e-06</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.010530635443038963</v>
+        <v>-0.010560155435089253</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.029812376493011716</v>
+        <v>-0.029812350384364972</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.32696495078983284</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.042561976288722506</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.0011715483887053417</v>
+      </c>
+      <c r="F12" s="0">
+        <v>9.676323744577445e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>3.4774571382049886e-05</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0076912114785374856</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.044097743322072835</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Row</t>
   </si>
@@ -232,6 +232,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -307,12 +448,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.24609375" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="3" max="3" width="14.64453125" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.77734375" customWidth="true"/>
@@ -325,45 +466,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29327604952437519</v>
+        <v>0.29323648618409176</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -395,352 +536,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29425048920040919</v>
+        <v>0.29421473793777031</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0013189885815270894</v>
+        <v>0.0013223364116144382</v>
       </c>
       <c r="E3" s="0">
-        <v>-4.999241294972401e-06</v>
+        <v>-4.9694785463378199e-06</v>
       </c>
       <c r="F3" s="0">
-        <v>-3.1859137857299906e-06</v>
+        <v>-3.0325027410946295e-06</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.00013462783614299903</v>
+        <v>-0.00013450240221951902</v>
       </c>
       <c r="H3" s="0">
-        <v>7.3893907311130055e-07</v>
+        <v>7.4502782454700624e-07</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00020239736080266213</v>
+        <v>-0.00020224772800952497</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-7.7492539829471241e-08</v>
+        <v>-7.7574243972922119e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29145801663328447</v>
+        <v>0.29125516717700312</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0015539283330628685</v>
+        <v>-0.0017222567301910033</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-1.4930367743056516e-07</v>
+        <v>-1.4928807335975062e-07</v>
       </c>
       <c r="F4" s="0">
-        <v>-2.0086193578360719e-05</v>
+        <v>-1.9958357206057547e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-4.2873833285103199e-05</v>
+        <v>-4.2733506319561661e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0011575960473246382</v>
+        <v>-0.0011566336946937554</v>
       </c>
       <c r="J4" s="0">
-        <v>2.5560372760684001e-08</v>
+        <v>2.6386538140467019e-08</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.7864416569091102e-05</v>
+        <v>-1.7865570821617993e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29203767419653448</v>
+        <v>0.29146537088912816</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0032496962659846035</v>
+        <v>0.0028617500112948207</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.00062363513829834618</v>
+        <v>-0.00060754437972411121</v>
       </c>
       <c r="E5" s="0">
-        <v>6.2383460227012725e-05</v>
+        <v>6.2661104337786243e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00016816307388065456</v>
+        <v>0.00016959113856348452</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0018508191266549041</v>
+        <v>-0.0018502382856906195</v>
       </c>
       <c r="H5" s="0">
-        <v>5.6719468706137904e-06</v>
+        <v>5.7287462609806909e-06</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00043254868239875891</v>
+        <v>-0.00043248975245988003</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>7.4576363912060017e-07</v>
+        <v>7.4512954256755748e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B6" s="0">
-        <v>0.58250535049530683</v>
+        <v>0.58365018031053539</v>
       </c>
       <c r="C6" s="0">
-        <v>0.2953383645413527</v>
+        <v>0.29705139439510858</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-3.1956150137918815e-07</v>
+        <v>-3.195279310906813e-07</v>
       </c>
       <c r="F6" s="0">
-        <v>-8.7279565938449616e-05</v>
+        <v>-8.6874111210128544e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-5.3246352312610439e-05</v>
+        <v>-5.2801060503253041e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0047294465563309223</v>
+        <v>-0.0047261903851352309</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-3.9620649699978472e-07</v>
+        <v>-3.9988892164277701e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B7" s="0">
-        <v>0.54039031374823476</v>
+        <v>0.54148826504476566</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.043212493197749016</v>
+        <v>-0.043285278539816861</v>
       </c>
       <c r="E7" s="0">
-        <v>-9.6715138137333262e-05</v>
+        <v>-9.1849161755039506e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00077516748501435572</v>
+        <v>-0.00075013929695130484</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00033905404093473584</v>
+        <v>0.00033542440519903542</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0016385504979685793</v>
+        <v>0.0016381908103451459</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-8.265465074708267e-06</v>
+        <v>-8.2634827907046571e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B8" s="0">
-        <v>0.23692802112716793</v>
+        <v>0.2245398199672666</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.29069282874203783</v>
+        <v>-0.3041571745156943</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>2.0139816837635527e-05</v>
+        <v>2.014390679864011e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.007431737238923701</v>
+        <v>-0.0074372983639618678</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-2.7217076120107353e-05</v>
+        <v>-2.7107499034277589e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.0054883165996474723</v>
+        <v>-0.0055047094157400422</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00015766721882470858</v>
+        <v>0.00015770081013277704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.015116105433552685</v>
+        <v>-0.027021618853639795</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.031614122423793321</v>
+        <v>-0.030797908159931393</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.029457147468180633</v>
+        <v>-0.029516760191088162</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.18359885899239659</v>
+        <v>-0.18390547750483105</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0027840390600413676</v>
+        <v>-0.0027425102945109669</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0046598565985617206</v>
+        <v>-0.0046727693538981671</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00023216564908855146</v>
+        <v>-0.00022805536258560695</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00030206363134155367</v>
+        <v>0.00030204204593894945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B10" s="0">
-        <v>0.28640484474548183</v>
+        <v>0.27270539335214339</v>
       </c>
       <c r="C10" s="0">
-        <v>0.33611848773701059</v>
+        <v>0.33287634236326741</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00062088709854028539</v>
+        <v>-0.00062092213115746422</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0063813633989069276</v>
+        <v>0.0064408787785390437</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0003456723929400724</v>
+        <v>-0.00034569212905037779</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00086665215979439959</v>
+        <v>-0.0008165675295943556</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.048497421483609159</v>
+        <v>-0.047158760686043244</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0093517321780009488</v>
+        <v>0.0093517335398221602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B11" s="0">
-        <v>0.42001279568163252</v>
+        <v>0.41433061029425594</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.012226240649239592</v>
+        <v>-0.0088076941405185183</v>
       </c>
       <c r="E11" s="0">
-        <v>0.022779814260864957</v>
+        <v>0.023494921352290109</v>
       </c>
       <c r="F11" s="0">
-        <v>0.16181858389951553</v>
+        <v>0.16549674288823088</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0015996221714689408</v>
+        <v>0.0016156072252229989</v>
       </c>
       <c r="H11" s="0">
-        <v>8.677072995056951e-06</v>
+        <v>0.00016354161801493362</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.010560155435089253</v>
+        <v>-0.010525486857962972</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.029812350384364972</v>
+        <v>-0.029812415143164878</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B12" s="0">
-        <v>0.32696495078983284</v>
+        <v>0.25282396982091265</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.042561976288722506</v>
+        <v>-0.052584872957607623</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0011715483887053417</v>
+        <v>0.0011614332077052748</v>
       </c>
       <c r="F12" s="0">
-        <v>9.676323744577445e-05</v>
+        <v>-0.01601140386880294</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>3.4774571382049886e-05</v>
+        <v>-0.0087543217979791296</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0076912114785374856</v>
+        <v>-0.041361870368724879</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.044097743322072835</v>
+        <v>-0.043955604687933969</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.25207075871413276</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.0055520036477322426</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.087784273032678731</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.08852454340537004</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.00070174622615223133</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0024537234652461763</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0028195032555877269</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.18077164254319045</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.13215251760872074</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.10408875748585925</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0012469676225779322</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.00087943386768197271</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-6.6929826232921445e-05</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.01351143873315783</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00012471356990212401</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Row</t>
   </si>
@@ -373,6 +373,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -448,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -466,42 +541,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B2" s="0">
         <v>0.29323648618409176</v>
@@ -536,7 +611,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B3" s="0">
         <v>0.29421473793777031</v>
@@ -571,7 +646,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B4" s="0">
         <v>0.29125516717700312</v>
@@ -606,7 +681,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B5" s="0">
         <v>0.29146537088912816</v>
@@ -641,7 +716,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0">
         <v>0.58365018031053539</v>
@@ -676,7 +751,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B7" s="0">
         <v>0.54148826504476566</v>
@@ -711,7 +786,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0">
         <v>0.2245398199672666</v>
@@ -746,7 +821,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B9" s="0">
         <v>-0.027021618853639795</v>
@@ -781,7 +856,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B10" s="0">
         <v>0.27270539335214339</v>
@@ -816,7 +891,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B11" s="0">
         <v>0.41433061029425594</v>
@@ -851,7 +926,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B12" s="0">
         <v>0.25282396982091265</v>
@@ -886,7 +961,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B13" s="0">
         <v>0.25207075871413276</v>
@@ -921,37 +996,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B14" s="0">
-        <v>0.13215251760872074</v>
+        <v>0.11747556552984803</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.10408875748585925</v>
+        <v>-0.10361175373529857</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0012469676225779322</v>
+        <v>-0.0012455976828557643</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.00087943386768197271</v>
+        <v>-0.0016232009221645316</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-6.6929826232921445e-05</v>
+        <v>-0.0077930120387781059</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.01351143873315783</v>
+        <v>-0.02120483535432922</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00012471356990212401</v>
+        <v>0.00088320654914142427</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.38297079879930201</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.35928968525207355</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.005169677152748295</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.012444627601565688</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0020542102397345984</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.13593593886799374</v>
       </c>
     </row>
   </sheetData>
